--- a/docs/project_management/requirements.xlsx
+++ b/docs/project_management/requirements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="10545"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="22995" windowHeight="10485"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Requirement</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>Adhere to a metric for elderly users</t>
+  </si>
+  <si>
+    <t>Autonomous prompting.</t>
   </si>
 </sst>
 </file>
@@ -408,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F10"/>
+  <dimension ref="B2:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,7 +470,9 @@
       <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
@@ -523,24 +528,6 @@
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
